--- a/sample_info_template.xlsx
+++ b/sample_info_template.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -378,6 +378,11 @@
           <t>Group02</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Group03</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
